--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,69 +70,66 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
@@ -142,15 +139,18 @@
     <t>please</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
@@ -160,10 +160,13 @@
     <t>store</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -527,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +541,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -670,13 +673,13 @@
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.702054794520548</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C5">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D5">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3866666666666667</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +823,13 @@
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3488372093023256</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8359375</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L8">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3121693121693122</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1587301587301587</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1045576407506702</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1049,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1098,13 +1101,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1124,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7619047619047619</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1142,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1150,13 +1153,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.71875</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1176,13 +1179,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7169811320754716</v>
+        <v>0.70625</v>
       </c>
       <c r="L17">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1202,13 +1205,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6808510638297872</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L18">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1228,13 +1231,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6458333333333334</v>
+        <v>0.64</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1254,13 +1257,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.618798955613577</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L20">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M20">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1280,7 +1283,7 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
         <v>30</v>
@@ -1298,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1306,13 +1309,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5558823529411765</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L22">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M22">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1332,13 +1335,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5555555555555556</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1358,13 +1361,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.550561797752809</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1384,13 +1387,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5288135593220339</v>
+        <v>0.4895397489539749</v>
       </c>
       <c r="L25">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="M25">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1410,13 +1413,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4811715481171548</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L26">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1436,13 +1439,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4769230769230769</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1462,7 +1465,7 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4520547945205479</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L28">
         <v>33</v>
@@ -1480,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1488,13 +1491,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.3974358974358974</v>
+        <v>0.421875</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1514,13 +1517,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.1004784688995215</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1540,13 +1543,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.09615384615384616</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1566,13 +1569,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.06487695749440715</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L32">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>836</v>
+        <v>848</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1592,13 +1595,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.04439511653718091</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>861</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1618,13 +1621,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.03344867358708189</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1636,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1644,25 +1647,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.02525724976613658</v>
+        <v>0.02996670366259711</v>
       </c>
       <c r="L35">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N35">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2084</v>
+        <v>874</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1670,25 +1673,51 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.01257658819735569</v>
+        <v>0.0229293401965372</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M36">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N36">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="O36">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3062</v>
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>0.01353965183752418</v>
+      </c>
+      <c r="L37">
+        <v>42</v>
+      </c>
+      <c r="M37">
+        <v>47</v>
+      </c>
+      <c r="N37">
+        <v>0.89</v>
+      </c>
+      <c r="O37">
+        <v>0.11</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3060</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,72 +70,81 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
@@ -148,7 +157,7 @@
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>share</t>
   </si>
   <si>
     <t>online</t>
@@ -160,19 +169,19 @@
     <t>store</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -530,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +550,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -649,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.708904109589041</v>
+        <v>0.702054794520548</v>
       </c>
       <c r="C5">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
@@ -749,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3733333333333334</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3691275167785235</v>
+        <v>0.36</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3468992248062016</v>
+        <v>0.3391472868217054</v>
       </c>
       <c r="C8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2962962962962963</v>
+        <v>0.2645502645502645</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.828125</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +982,13 @@
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09919571045576407</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.823943661971831</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L11">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1058,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1075,13 +1084,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7916666666666666</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1093,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1101,13 +1110,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1119,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1127,13 +1136,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1145,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1179,13 +1188,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.70625</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1197,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1205,13 +1214,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6595744680851063</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1223,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1231,25 +1240,25 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
+        <v>62</v>
+      </c>
+      <c r="M19">
+        <v>62</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>32</v>
-      </c>
-      <c r="M19">
-        <v>32</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1257,13 +1266,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6266318537859008</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L20">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M20">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1275,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1309,13 +1318,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5764705882352941</v>
+        <v>0.58</v>
       </c>
       <c r="L22">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1327,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1335,13 +1344,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.550561797752809</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1353,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1361,13 +1370,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5254237288135594</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L24">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1379,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1387,13 +1396,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4895397489539749</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L25">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1405,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>122</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1413,13 +1422,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4657534246575342</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1431,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1439,13 +1448,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4307692307692308</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1457,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1465,13 +1474,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4230769230769231</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1491,13 +1500,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.421875</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1509,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1517,13 +1526,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.09330143540669857</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1535,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>379</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1543,13 +1552,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.09134615384615384</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1561,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>378</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1569,13 +1578,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.05145413870246085</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1587,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>848</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1595,13 +1604,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.03846153846153846</v>
+        <v>0.1076555023923445</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1613,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>625</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1621,13 +1630,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.03114186851211072</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1639,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>840</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1647,13 +1656,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.02996670366259711</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1665,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>874</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1673,25 +1682,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.0229293401965372</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N36">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>2088</v>
+        <v>861</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1699,25 +1708,103 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.01353965183752418</v>
+        <v>0.03274087932647334</v>
       </c>
       <c r="L37">
+        <v>70</v>
+      </c>
+      <c r="M37">
+        <v>75</v>
+      </c>
+      <c r="N37">
+        <v>0.93</v>
+      </c>
+      <c r="O37">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38">
+        <v>0.02998846597462514</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>0.01353528843055108</v>
+      </c>
+      <c r="L39">
         <v>42</v>
       </c>
-      <c r="M37">
-        <v>47</v>
-      </c>
-      <c r="N37">
-        <v>0.89</v>
-      </c>
-      <c r="O37">
-        <v>0.11</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>3060</v>
+      <c r="M39">
+        <v>46</v>
+      </c>
+      <c r="N39">
+        <v>0.91</v>
+      </c>
+      <c r="O39">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40">
+        <v>0.008142812402129659</v>
+      </c>
+      <c r="L40">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>34</v>
+      </c>
+      <c r="N40">
+        <v>0.76</v>
+      </c>
+      <c r="O40">
+        <v>0.24</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3167</v>
       </c>
     </row>
   </sheetData>
